--- a/atp-dataset-import/TEST_DATA/importVariablesWithMacros_2.xlsx
+++ b/atp-dataset-import/TEST_DATA/importVariablesWithMacros_2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\atp-dataset\netcracker-atp-dataset-import\TEST_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qstp_projects\qubership-testing-platform-datasets\atp-dataset-import\TEST_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="DJR_6620" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -39,21 +39,6 @@
     <t>EmailContact</t>
   </si>
   <si>
-    <t>$RAND('-1')at@yandex.ru</t>
-  </si>
-  <si>
-    <t>$RAND('0')at@yandex.ru</t>
-  </si>
-  <si>
-    <t>$RAND('1')at@yandex.ru</t>
-  </si>
-  <si>
-    <t>$RAND('2')at@yandex.ru</t>
-  </si>
-  <si>
-    <t>$RAND('10')at@yandex.ru</t>
-  </si>
-  <si>
     <t>mail1</t>
   </si>
   <si>
@@ -67,12 +52,27 @@
   </si>
   <si>
     <t>mail5</t>
+  </si>
+  <si>
+    <t>$RAND('-1')example@example.com</t>
+  </si>
+  <si>
+    <t>$RAND('0')example@example.com</t>
+  </si>
+  <si>
+    <t>$RAND('1')example@example.com</t>
+  </si>
+  <si>
+    <t>$RAND('2')example@example.com</t>
+  </si>
+  <si>
+    <t>$RAND('10')example@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -156,7 +156,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -172,9 +172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +284,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,18 +437,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,7 +472,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -484,48 +484,48 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
